--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9217546352.186718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003871223596874129</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.463464420691775</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9095565648183991</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.463464420691775</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4465250300.474725</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004506345810845427</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.898671295244508</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9328366288695706</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.898671295244508</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5089733532.541911</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003050816634892403</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.055554006674496</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.000063032108019</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.055554006674496</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3274763722.599136</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004289033722510232</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.092457704575729</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7910547996734835</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.092457704575729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5428665391.932669</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001948251581567373</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.9558838241251059</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.791102507056318</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.089174963442865</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.791102507056318</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7290010528.462708</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009001516913875177</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2877257816048217</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.981931779588322</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6137564007158782</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.981931779588322</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6365397787.029895</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003270725939946392</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.27448647453665</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9528751761957465</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.27448647453665</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6965851572.024474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004621162373043511</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.966431778256506</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9468337190008039</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.966431778256506</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3238770346.15146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004599324010043265</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.895234171266193</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9612870560201487</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.895234171266193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3872853047.236771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001509740007460735</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.916830081367304</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7311440053399377</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.916830081367304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9103209645.559048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001890869632169711</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.016596933803853</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9857705176043218</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.016596933803853</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5239379817.991273</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002920613963689054</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.109200909089408</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.00276624624985</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.109200909089408</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>8440824039.148581</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002491470381744442</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.335915884117723</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8533966607274039</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.335915884117723</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8159826014.319975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005680513066305768</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.3263772876165779</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.858980023874171</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.6160942825552631</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.858980023874171</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6575088799.54969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003419172047504856</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.9460409311311124</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.667381475184027</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.141054494509056</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.667381475184027</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>7014835915.536199</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002108261629538759</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.932177774650861</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9725009134491361</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.932177774650861</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5937806325.757265</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008528930277147405</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.500676791718295</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9971898330821938</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.500676791718295</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3300138295.193807</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002042150471181895</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.146954457512245</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.167494031077555</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.146954457512245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5109613085.89846</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001110470229555855</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.303088312097902</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8358435908533658</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.303088312097902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5801321022.350815</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005698843900968651</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.137531132911089</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8001725894029124</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.137531132911089</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5451385748.095037</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003558728831390662</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.20218191323786</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8950713227586266</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.20218191323786</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6827232833.059019</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001290391490060202</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.076148458594978</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8531157289149832</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.076148458594978</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7260461520.255771</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003212406244114107</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.472859551763453</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.00989783458647</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.472859551763453</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4619644232.033005</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003774479051916188</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.984669212517927</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9283822585662491</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.984669212517927</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4526364576.01904</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001028293994377564</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.972487313798059</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7913577634072947</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.972487313798059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6315971103.467358</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002538404874336471</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
         <v>7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.2242946420899611</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.36910159268761</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.3647838987484444</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.36910159268761</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>5972840079.445517</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005385714283595504</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
         <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.371853230674143</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.872609931814545</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.371853230674143</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>4995189621.808852</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001467979191188853</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.118174599018457</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.016272053699818</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.118174599018457</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6517700795.397667</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00425602133540423</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.468524956362145</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8870170128810673</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.468524956362145</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7918582241.772233</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003495621962670836</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.418342765222885</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9488492725134593</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.418342765222885</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3213275805.71869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001306269111884239</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.211417162660255</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9438805917652844</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.211417162660255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5439271708.954419</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002530825406546967</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.459980710809436</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8602832667624806</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.459980710809436</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6122834265.524958</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004842458349883903</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.160047750552617</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8096841926042951</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.160047750552617</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7087871086.471421</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001715792759953605</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.359820179057282</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9550478419849774</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.359820179057282</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5496620577.045803</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003090643685603293</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.5949847666193</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.003244223434701</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.5949847666193</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5030376189.274891</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004282423968739097</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.518399440895802</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.996786697857818</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.518399440895802</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4128052753.872012</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004718745907154801</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.842510269092247</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9194087783680441</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.842510269092247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5573414280.389238</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003197638691581792</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8554881095090053</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5.207445178010105</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06788746396904</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-5.207445178010105</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6499041227.987279</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004180010418685784</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.114640856394228</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9941451753432408</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.114640856394228</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5630818530.138523</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001456470988774123</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.945318318463046</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9216603391761561</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.945318318463046</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5105862868.94781</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005422233849377386</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.263682647014022</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.00784341900533</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.263682647014022</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6727725136.701482</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003147505291587206</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.485545867136651</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9485149146270182</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.485545867136651</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4849475736.401487</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001789062478152878</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.044487388491232</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9645157970075015</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.044487388491232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5267661728.131323</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001082640892365677</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3247490164729278</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.207141899233008</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6252933583341375</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-4.207141899233008</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8894002488.303757</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005486805792136603</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.370172676617628</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7981790031056665</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.370172676617628</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>9345319462.885164</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.00203037199748431</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.841488048475603</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9080672367120075</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.841488048475603</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7784722492.052091</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003629988939165783</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.146409960859548</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9885985197761538</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.146409960859548</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3637232243.475975</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003726714982393358</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.477167809616791</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8618551718740165</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.477167809616791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6896002646.691089</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00373181356179616</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.085834454457279</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02540852490441</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.085834454457279</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5415263203.864826</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003798540130183569</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.412819805156105</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.940071181171389</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.412819805156105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8127315051.965894</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002175462701349042</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.53100690792381</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8402179712870599</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.53100690792381</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6068288277.528993</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002422481622963158</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.9497697851803272</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.613429426502057</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.165286354294915</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.613429426502057</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6502572047.664961</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003745608199118088</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.891722181141692</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.7897436650910289</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.891722181141692</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7285401493.050276</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004077248808725638</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.915417832228134</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9272653225940922</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.915417832228134</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5714672081.169353</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002563224433269471</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>4</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9869754762351501</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.401608089937669</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.206337764301701</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-4.401608089937669</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8221982501.759213</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004406050011103843</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8293756733455533</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.323390306933227</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.008741241377391</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.323390306933227</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7267485761.462567</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001775966303533828</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.992737398550483</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7913577634072947</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.992737398550483</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5014311413.681408</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004217131378141698</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.103173054303054</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8421120418962957</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.103173054303054</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5598194966.09581</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002776792915492629</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.802405578417956</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.850309807759874</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.802405578417956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5344876031.46595</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005964847020505935</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2277413940792594</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.81270797792213</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.3534562073948175</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.81270797792213</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5867742012.613012</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002928919536375952</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.8288628811769</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.179653777991924</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.025466936295974</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.179653777991924</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6072148907.109241</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005235959478018316</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.2270405592945318</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.307261108045786</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.3640565500871359</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.307261108045786</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3408082009.341189</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003516425220458319</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.325357051974708</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.912883386938604</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.325357051974708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6985432087.081963</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005031163471406814</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.463538277369367</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.054309816639734</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.463538277369367</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6529105140.39351</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003842201504795897</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9846884524796944</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.381347167760707</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.15669210609335</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.381347167760707</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5159842987.752228</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005061981320643285</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.63656953325774</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9536295623908149</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.63656953325774</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8159867072.768076</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002980786514541341</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.791087693387948</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7615869229803057</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.791087693387948</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6354950206.922866</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008448986088985524</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.997205477190118</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9655896448347299</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.997205477190118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5337779928.740492</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002903898542725971</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.82964093605585</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.923303442852041</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.82964093605585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4434188402.018683</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002681760539410666</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.051490457420546</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8608403605248808</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-6.051490457420546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8123513207.437099</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.00166550123291253</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5.009856435618068</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.094815075679336</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-5.009856435618068</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5486767745.306974</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001005626275950345</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.994327779744346</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9883560186921824</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.994327779744346</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4901886777.686689</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00419341332035002</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.534532995351395</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8633344603568046</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.534532995351395</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6282778469.471447</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.00446617061083901</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.9368161539153873</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.05481095519744</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.053237657959382</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.05481095519744</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>7061169360.637504</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002956193896498242</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.434275832332363</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9098200691470745</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.434275832332363</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5154244130.00863</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.003920287207344265</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.137995539020371</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.024631356649862</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.137995539020371</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7840205126.24861</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004858275966667688</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.96099276654807</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9350558567437738</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.96099276654807</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6552996769.830027</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002074279294384916</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.289054014267784</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9636895230106598</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.289054014267784</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6510977076.96701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002658037813232896</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.642272660323489</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.956464018504945</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.642272660323489</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6771263482.761159</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003841327192534486</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.474665711392225</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.025875952629615</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.474665711392225</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5792040477.863899</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005515534801130225</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.09205795811476</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9552987983341669</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.09205795811476</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9512682934.723448</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003181549062590359</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8684955647636856</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.758725589874953</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9757760551349748</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.758725589874953</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5922337611.764493</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004737729951396437</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.318303911593232</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9422733704923737</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.318303911593232</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5633495994.287303</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003142367611580087</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.538978919139614</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9236469272735409</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.538978919139614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8234587510.43576</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002432155506985976</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.608677298221223</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9693787150103687</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.608677298221223</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3718264764.050843</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001385360605980831</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.330130645066894</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9810678508648806</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.330130645066894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>5807855380.133575</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003613119301025664</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>6</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.8023623388400116</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.531772899627615</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.9722285768219265</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.531772899627615</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8136612123.646194</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004017937302314519</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.05852071229003004</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.703904874357059</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.3370026938299733</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.703904874357059</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5040998683.883957</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002565790087163085</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.527825347856571</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9314677251559286</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.527825347856571</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6835955538.06971</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003820707892261838</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.965659772854472</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8632446961196427</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.965659772854472</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5228876645.627382</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003090589741312606</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.418654458303545</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.010211876282328</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.418654458303545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7890539810.438135</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001529954504288688</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.362328942149524</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.362328942149524</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4668100423.627829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001032451677342048</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.151134629299596</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.054537151114863</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.151134629299596</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6521516251.991099</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.001900961994720117</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.858337180597773</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9171516901091834</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.858337180597773</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7012673881.002293</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002501371742589339</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.022541953490391</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8850357624129013</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.022541953490391</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7651692916.291435</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.00422835128673836</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.065456850325678</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8988909778774233</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.065456850325678</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>5614981946.218035</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004099713181331586</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.741023782701181</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8695912843016166</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.741023782701181</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3943382824.899382</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003658710643678511</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.647009528771117</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9078032235959731</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.647009528771117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3802323699.018331</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002431323466985096</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.530186869183235</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.807513226741583</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.530186869183235</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5789455866.223642</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001510148764710539</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6310604292075022</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.629738165938495</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8702314715242706</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.629738165938495</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9217546352.186718</v>
+        <v>2174246205.51581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003871223596874129</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>0.07297026554302263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04460137305527987</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1087123121.640629</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4465250300.474725</v>
+        <v>2332430076.703147</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004506345810845427</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>0.1537707004943991</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04607666042725352</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1166215129.7193</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5089733532.541911</v>
+        <v>3188394890.018456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003050816634892403</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1559206491701917</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03571541154468332</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1594197401.472926</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3274763722.599136</v>
+        <v>2609621865.427666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004289033722510232</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1065980405731783</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0467842329888492</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1304811028.014585</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5428665391.932669</v>
+        <v>2598115821.294427</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001948251581567373</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.1274641194480992</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05106004310943608</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1299057875.333828</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7290010528.462708</v>
+        <v>2607801830.655892</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009001516913875177</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>0.06842499172041468</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03130304506078296</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1303900917.756131</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6365397787.029895</v>
+        <v>2438290261.087318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003270725939946392</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.2088870689978586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02489294757510106</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1219145130.415527</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6965851572.024474</v>
+        <v>1395077914.641306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004621162373043511</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>0.1284126595403105</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03734956227308214</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>697539067.6462811</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3238770346.15146</v>
+        <v>5852867071.529286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004599324010043265</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1895732548117514</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04050981941870473</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2926433700.900172</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3872853047.236771</v>
+        <v>4100510966.800583</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001509740007460735</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1408028703137895</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04840747536083328</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2050255502.913446</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9103209645.559048</v>
+        <v>2768035741.982279</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001890869632169711</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>0.131166005084827</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04399736562711336</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1384017867.568811</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5239379817.991273</v>
+        <v>5128456425.424356</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002920613963689054</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+        <v>0.09259072921346916</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02937973610261088</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2564228210.084011</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>8440824039.148581</v>
+        <v>3810030874.072457</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002491470381744442</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1697693751920249</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03007898828573991</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>6</v>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1905015412.594532</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8159826014.319975</v>
+        <v>1578202905.101447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005680513066305768</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+        <v>0.07901865105249833</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03054969334858172</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>789101555.5864516</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6575088799.54969</v>
+        <v>1794913172.298289</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003419172047504856</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+        <v>0.08749521431820394</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05068779213673091</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>897456679.761261</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>7014835915.536199</v>
+        <v>4764113164.394312</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002108261629538759</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1678759323817244</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05139755886131705</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2382056578.820419</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5937806325.757265</v>
+        <v>2883156658.532314</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008528930277147405</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+        <v>0.1187752605627209</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03256773302134282</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1441578367.780145</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3300138295.193807</v>
+        <v>875859933.828541</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002042150471181895</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.143349558125993</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01720963373892715</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>437929965.7947147</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5109613085.89846</v>
+        <v>2252603087.685277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001110470229555855</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1349967088567189</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02091875160522111</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1126301543.077843</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5801321022.350815</v>
+        <v>2245426599.645119</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005698843900968651</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>0.1014375838963932</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0437136948601596</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1122713312.093443</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5451385748.095037</v>
+        <v>2913615079.36834</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003558728831390662</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1080311664509235</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0505672145608007</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1456807606.185889</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6827232833.059019</v>
+        <v>987811096.7873952</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001290391490060202</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1201389895512018</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05067370762344409</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>493905620.4295433</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7260461520.255771</v>
+        <v>3112570091.524396</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003212406244114107</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
+        <v>0.1272500725341671</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02609865225785722</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1556285073.248524</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4619644232.033005</v>
+        <v>1362734323.837068</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003774479051916188</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.1188405012376051</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02891195433685819</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>681367142.2113935</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4526364576.01904</v>
+        <v>1402384069.212882</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001028293994377564</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1102042193396346</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03610908222817478</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>701192104.9830496</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6315971103.467358</v>
+        <v>4302849289.710527</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002538404874336471</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
+        <v>0.09793096718398993</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01650757154170455</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2151424639.751471</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>5972840079.445517</v>
+        <v>2484980200.718874</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005385714283595504</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
+        <v>0.1157450595115791</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03120427905805408</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1242490066.689599</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4995189621.808852</v>
+        <v>4669453540.608532</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001467979191188853</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1118621495077918</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03462812757055218</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2334726740.51124</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6517700795.397667</v>
+        <v>2040855816.805861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00425602133540423</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.08844482372598166</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.031707782575383</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1020427950.267462</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7918582241.772233</v>
+        <v>1413478375.208048</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003495621962670836</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.07142275012574735</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05165813622220122</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>706739088.6152114</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3213275805.71869</v>
+        <v>1479152732.761973</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001306269111884239</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1119151842346695</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03688258943885652</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>739576430.1779623</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5439271708.954419</v>
+        <v>3062207167.660942</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002530825406546967</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
+        <v>0.1281181513773703</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03713327694319033</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1531103573.958968</v>
       </c>
     </row>
     <row r="34">
@@ -1379,19 +1581,25 @@
         <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6122834265.524958</v>
+        <v>1334821569.009402</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004842458349883903</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
+        <v>0.1203675560228776</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02583314006130289</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>667410767.259455</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7087871086.471421</v>
+        <v>1344931202.311338</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001715792759953605</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
+        <v>0.1066611315060632</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03679667756477486</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>672465543.8349339</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5496620577.045803</v>
+        <v>2037130383.49527</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003090643685603293</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
+        <v>0.1452259692723591</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01937516320787408</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1018565250.618684</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5030376189.274891</v>
+        <v>2699200197.264573</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004282423968739097</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
+        <v>0.08530128573579962</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03502557179319161</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1349600221.888253</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4128052753.872012</v>
+        <v>1707843991.186223</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004718745907154801</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1218894478002624</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03084292556735169</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>853922015.266803</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5573414280.389238</v>
+        <v>2009589739.820628</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003197638691581792</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
+        <v>0.1480746938602092</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0296737410176559</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1004794862.808631</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6499041227.987279</v>
+        <v>1129523875.657728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004180010418685784</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
+        <v>0.1440056261786218</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04855600562255732</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>564761996.5498989</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5630818530.138523</v>
+        <v>2066984086.303631</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001456470988774123</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
+        <v>0.1641393391446626</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03892011785181418</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1033492110.518603</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5105862868.94781</v>
+        <v>4284434089.271007</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005422233849377386</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.07809269867703725</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04376156697333347</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2142217093.334151</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6727725136.701482</v>
+        <v>2048049135.026484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003147505291587206</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1309646923260343</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02281364441146069</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1024024661.336362</v>
       </c>
     </row>
     <row r="44">
@@ -1659,19 +1921,25 @@
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4849475736.401487</v>
+        <v>1477308058.083561</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001789062478152878</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.06237565112548676</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03680938846439866</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>738654030.8952047</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5267661728.131323</v>
+        <v>1554495118.326638</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001082640892365677</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1800759978868011</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.05215857399406633</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>777247504.924019</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8894002488.303757</v>
+        <v>3867737942.069994</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005486805792136603</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1712616216256606</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03748253873039429</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>10</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1933868932.790039</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>9345319462.885164</v>
+        <v>4723902359.221088</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00203037199748431</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1671560889377522</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04096473113145399</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2361951219.593584</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7784722492.052091</v>
+        <v>4672730270.324443</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003629988939165783</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
+        <v>0.09688984874826387</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.0307952041042516</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2336365130.246496</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3637232243.475975</v>
+        <v>1587741645.104641</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003726714982393358</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1504492479710319</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03092283824567762</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>793870840.7329061</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6896002646.691089</v>
+        <v>3903098445.20438</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00373181356179616</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
+        <v>0.1613373083165312</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03470736678249171</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1951549217.947651</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5415263203.864826</v>
+        <v>1359705070.666566</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003798540130183569</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1677735472285774</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04681113722705022</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>679852560.7885177</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8127315051.965894</v>
+        <v>4476912977.886008</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002175462701349042</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
+        <v>0.1084988934828853</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03886487933142632</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2238456517.149744</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6068288277.528993</v>
+        <v>2349950814.657022</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002422481622963158</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
+        <v>0.1435118596904826</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.0260057281418351</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1174975484.456202</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6502572047.664961</v>
+        <v>3237938718.575808</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003745608199118088</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>6</v>
+        <v>0.1500472121841483</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04624154025977837</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1618969363.344953</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7285401493.050276</v>
+        <v>3309814966.31587</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004077248808725638</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
+        <v>0.2227788648403711</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02041440990682254</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1654907427.40307</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5714672081.169353</v>
+        <v>1650874018.374108</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002563224433269471</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
+        <v>0.1253040653109865</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05069768945804904</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>825437028.9254628</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8221982501.759213</v>
+        <v>3313329745.168172</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004406050011103843</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1724734983896503</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02450135904096902</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1656664903.087729</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7267485761.462567</v>
+        <v>1390640408.854338</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001775966303533828</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
+        <v>0.1585272194394653</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02915383127918503</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>695320245.3125421</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5014311413.681408</v>
+        <v>4620218607.194648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004217131378141698</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
+        <v>0.09796416215868455</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04612822705189076</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2310109249.423711</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3440816791.041945</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1788408313512921</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02091233656900754</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5598194966.09581</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.002776792915492629</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1720408511.865024</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5344876031.46595</v>
+        <v>3187295821.977973</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005964847020505935</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
+        <v>0.1232956226986076</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02102103063139339</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1593647873.577847</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5867742012.613012</v>
+        <v>1357150971.764295</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002928919536375952</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5</v>
+        <v>0.1234791487576796</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03319006734832706</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>678575447.3062612</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6072148907.109241</v>
+        <v>4261780634.721535</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005235959478018316</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>7</v>
+        <v>0.07993152711711705</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03673269016795389</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2130890367.860629</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3408082009.341189</v>
+        <v>5132833261.926931</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003516425220458319</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1517076768483083</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02370420133325909</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2566416746.322649</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6985432087.081963</v>
+        <v>5437249776.946246</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005031163471406814</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1327989693567778</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02050697473696483</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2718624821.082629</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6529105140.39351</v>
+        <v>4529269479.459853</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003842201504795897</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
+        <v>0.1406245130122553</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03266758594077691</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2264634741.454021</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5159842987.752228</v>
+        <v>2495756375.21971</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005061981320643285</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.1022472085430207</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04037083986097893</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1247878248.313213</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8159867072.768076</v>
+        <v>5677730561.684826</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002980786514541341</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
+        <v>0.1422042817700518</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03718424542123373</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2838865378.065557</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6354950206.922866</v>
+        <v>2106894075.493521</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008448986088985524</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.162758908079646</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04794003754935128</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1053447056.321158</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5337779928.740492</v>
+        <v>3377388834.187711</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002903898542725971</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.07211404636228126</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03445968666484021</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1688694418.422174</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4434188402.018683</v>
+        <v>4285940693.378124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002681760539410666</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1292442693669473</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02730039365309804</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2142970398.893376</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8123513207.437099</v>
+        <v>1612925926.500458</v>
       </c>
       <c r="F72" t="n">
-        <v>0.00166550123291253</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.07545749393749715</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03251494152946727</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>806462971.8434808</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5486767745.306974</v>
+        <v>2289151278.341752</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001005626275950345</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.07802587428746181</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03849521671656976</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1144575699.983425</v>
       </c>
     </row>
     <row r="74">
@@ -2499,19 +2941,25 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4901886777.686689</v>
+        <v>2887116999.453894</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00419341332035002</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1282365747098326</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0307285066105502</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1443558574.681061</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6282778469.471447</v>
+        <v>1893814704.91885</v>
       </c>
       <c r="F75" t="n">
-        <v>0.00446617061083901</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.1553731117394548</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03368213371520087</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>946907326.3640028</v>
       </c>
     </row>
     <row r="76">
@@ -2555,19 +3009,25 @@
         <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>7061169360.637504</v>
+        <v>3963415688.822462</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002956193896498242</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.08373129343916567</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02914477273546225</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1981707827.387861</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5154244130.00863</v>
+        <v>2303877627.285254</v>
       </c>
       <c r="F77" t="n">
-        <v>0.003920287207344265</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1549479595989197</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02570591822466177</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1151938919.783527</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7840205126.24861</v>
+        <v>4619658102.843905</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004858275966667688</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>6</v>
+        <v>0.0898379510426848</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05097254706149327</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2309828972.57984</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6552996769.830027</v>
+        <v>1529062127.807912</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002074279294384916</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1156959704574641</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03225264045305723</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>764531103.0159074</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6510977076.96701</v>
+        <v>4983687505.21824</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002658037813232896</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.08779834622741142</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03039900869975564</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2491843800.775138</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6771263482.761159</v>
+        <v>4696508933.580462</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003841327192534486</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.1318576897913767</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02726792496961159</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2348254455.648728</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5792040477.863899</v>
+        <v>4776096542.570361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005515534801130225</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.1551497688412652</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02297504284627852</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2388048267.540161</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9512682934.723448</v>
+        <v>1644116296.268357</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003181549062590359</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.0990712282906102</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04555350305351583</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>822058088.9007503</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5922337611.764493</v>
+        <v>2333309135.135205</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004737729951396437</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
+        <v>0.09316912787073033</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03743443510200117</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1166654523.536615</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>541</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3562432762.031382</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1268711596881577</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04662226368502076</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" t="n">
-        <v>512</v>
-      </c>
-      <c r="E85" t="n">
-        <v>5633495994.287303</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.003142367611580087</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1781216503.043389</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8234587510.43576</v>
+        <v>2671173411.704377</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002432155506985976</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1245247548837944</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02364143400654506</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1335586826.526496</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3718264764.050843</v>
+        <v>1469190197.675757</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001385360605980831</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1795936645740399</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02783365046218154</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>734595223.2209443</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>5807855380.133575</v>
+        <v>3412370120.450165</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003613119301025664</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>6</v>
+        <v>0.1644820045208652</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03645737852437642</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1706185131.225528</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8136612123.646194</v>
+        <v>3379559228.22362</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004017937302314519</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
+        <v>0.1294219236318844</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03384631654103918</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1689779624.160678</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5040998683.883957</v>
+        <v>1988066495.112308</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002565790087163085</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>4</v>
+        <v>0.08578527815520011</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.0398265206468078</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>994033315.4389557</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6835955538.06971</v>
+        <v>1896456573.161486</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003820707892261838</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>8</v>
+        <v>0.1444706007211779</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04907033283270631</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>948228272.4028643</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5228876645.627382</v>
+        <v>2273049645.368381</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003090589741312606</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09135850216477186</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03433849619133116</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1136524789.259418</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7890539810.438135</v>
+        <v>4564070242.454537</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001529954504288688</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>10</v>
+        <v>0.09949148131716312</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03468170429295103</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2282035085.13844</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4668100423.627829</v>
+        <v>2202258057.828279</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001032451677342048</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
+        <v>0.1375467001723229</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0303431429295065</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1101129053.433033</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6521516251.991099</v>
+        <v>2865092866.784689</v>
       </c>
       <c r="F95" t="n">
-        <v>0.001900961994720117</v>
-      </c>
-      <c r="G95" t="b">
+        <v>0.1005713968906547</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04265356922438587</v>
+      </c>
+      <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="H95" t="n">
-        <v>7</v>
+      <c r="I95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1432546442.747217</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7012673881.002293</v>
+        <v>1658568243.67988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002501371742589339</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
+        <v>0.1396630818763457</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03964271021847425</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>829284145.0412718</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7651692916.291435</v>
+        <v>3902588453.322361</v>
       </c>
       <c r="F97" t="n">
-        <v>0.00422835128673836</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7</v>
+        <v>0.1452256381483624</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02067205695170045</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1951294275.018303</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3624768208.932261</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.07974525624025453</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02508134704888764</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>5614981946.218035</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004099713181331586</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>11</v>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1812384131.32097</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3943382824.899382</v>
+        <v>2363457269.765848</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003658710643678511</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1029338559850353</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02716054659721076</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1181728574.356317</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3802323699.018331</v>
+        <v>4318369240.574525</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002431323466985096</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
+        <v>0.1592006438871736</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02638116679487807</v>
+      </c>
+      <c r="H100" t="b">
         <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2159184716.145871</v>
       </c>
     </row>
     <row r="101">
@@ -3255,19 +3859,25 @@
         <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5789455866.223642</v>
+        <v>3305587583.184384</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001510148764710539</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.2033307721435266</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.0581215187748457</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1652793920.810874</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2174246205.51581</v>
+        <v>2312967533.6029</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07297026554302263</v>
+        <v>0.08646487960381291</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04460137305527987</v>
+        <v>0.03410375411894429</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1087123121.640629</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2332430076.703147</v>
+        <v>2563029793.447013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1537707004943991</v>
+        <v>0.1471721843218384</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04607666042725352</v>
+        <v>0.03678969607983625</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1166215129.7193</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3188394890.018456</v>
+        <v>4007361331.693257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1559206491701917</v>
+        <v>0.1556856576969817</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03571541154468332</v>
+        <v>0.03081106667163687</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1594197401.472926</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2609621865.427666</v>
+        <v>3263255598.025677</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065980405731783</v>
+        <v>0.08535715003290754</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0467842329888492</v>
+        <v>0.03262173244871568</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1304811028.014585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2598115821.294427</v>
+        <v>1744063812.262379</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1274641194480992</v>
+        <v>0.1159965162975571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05106004310943608</v>
+        <v>0.05099125418994041</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1299057875.333828</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2607801830.655892</v>
+        <v>2325530615.107327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06842499172041468</v>
+        <v>0.09340571739759178</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03130304506078296</v>
+        <v>0.03825526744449134</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1303900917.756131</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2438290261.087318</v>
+        <v>3478422763.452871</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2088870689978586</v>
+        <v>0.1379437184486616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02489294757510106</v>
+        <v>0.02504841611991391</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1219145130.415527</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1395077914.641306</v>
+        <v>1587137349.017114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1284126595403105</v>
+        <v>0.1301221066943708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03734956227308214</v>
+        <v>0.02399248506192967</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>697539067.6462811</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5852867071.529286</v>
+        <v>5036607584.514976</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1895732548117514</v>
+        <v>0.1629094481203577</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04050981941870473</v>
+        <v>0.04092657419217004</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2926433700.900172</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4100510966.800583</v>
+        <v>3763662241.253247</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408028703137895</v>
+        <v>0.186946119902034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04840747536083328</v>
+        <v>0.04507288528187963</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2050255502.913446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2768035741.982279</v>
+        <v>2957346616.832773</v>
       </c>
       <c r="F12" t="n">
-        <v>0.131166005084827</v>
+        <v>0.126281877720728</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04399736562711336</v>
+        <v>0.04717458220473804</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1384017867.568811</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5128456425.424356</v>
+        <v>3687249153.616704</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09259072921346916</v>
+        <v>0.07445641008235675</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02937973610261088</v>
+        <v>0.02098331224055828</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2564228210.084011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3810030874.072457</v>
+        <v>2742090895.37134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1697693751920249</v>
+        <v>0.1356241102514835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03007898828573991</v>
+        <v>0.03841046326670183</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1905015412.594532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1578202905.101447</v>
+        <v>1364096320.552674</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07901865105249833</v>
+        <v>0.07833726693977223</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03054969334858172</v>
+        <v>0.04802289250918092</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>789101555.5864516</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1794913172.298289</v>
+        <v>1806416347.702112</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08749521431820394</v>
+        <v>0.1156359861673217</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05068779213673091</v>
+        <v>0.0493746383868551</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>897456679.761261</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4764113164.394312</v>
+        <v>4231051173.84488</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1678759323817244</v>
+        <v>0.1639990493735007</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05139755886131705</v>
+        <v>0.03425913390325772</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2382056578.820419</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2883156658.532314</v>
+        <v>2931944762.09272</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1187752605627209</v>
+        <v>0.1776316530075129</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03256773302134282</v>
+        <v>0.02222497302949062</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1441578367.780145</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>875859933.828541</v>
+        <v>1146321164.351275</v>
       </c>
       <c r="F19" t="n">
-        <v>0.143349558125993</v>
+        <v>0.1652373134298781</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01720963373892715</v>
+        <v>0.01685266737720709</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>437929965.7947147</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2252603087.685277</v>
+        <v>2135080446.783785</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1349967088567189</v>
+        <v>0.1342312403296705</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02091875160522111</v>
+        <v>0.02068357869023832</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1126301543.077843</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2245426599.645119</v>
+        <v>1985272257.119082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1014375838963932</v>
+        <v>0.06463314607919703</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0437136948601596</v>
+        <v>0.04375347664341351</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1122713312.093443</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2913615079.36834</v>
+        <v>3052201995.708873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1080311664509235</v>
+        <v>0.1340372419626977</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0505672145608007</v>
+        <v>0.05340736239798233</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1456807606.185889</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>987811096.7873952</v>
+        <v>1517430648.817589</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1201389895512018</v>
+        <v>0.1558745193827633</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05067370762344409</v>
+        <v>0.04862068683214684</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>493905620.4295433</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3112570091.524396</v>
+        <v>3735494021.503732</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1272500725341671</v>
+        <v>0.1413524759095484</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02609865225785722</v>
+        <v>0.0229374760305267</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1556285073.248524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1362734323.837068</v>
+        <v>992698086.0881333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1188405012376051</v>
+        <v>0.07540522664696921</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02891195433685819</v>
+        <v>0.02696797799568882</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>681367142.2113935</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1402384069.212882</v>
+        <v>1182713680.409703</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102042193396346</v>
+        <v>0.1155281129045522</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03610908222817478</v>
+        <v>0.03746680222464089</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>701192104.9830496</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4302849289.710527</v>
+        <v>4635030354.303816</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09793096718398993</v>
+        <v>0.1552290810507084</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01650757154170455</v>
+        <v>0.02130759239709461</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2151424639.751471</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2484980200.718874</v>
+        <v>3413296595.043502</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1157450595115791</v>
+        <v>0.1128520235570439</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03120427905805408</v>
+        <v>0.03464776009123618</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1242490066.689599</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4669453540.608532</v>
+        <v>4886146972.166893</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1118621495077918</v>
+        <v>0.1209518485172541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03462812757055218</v>
+        <v>0.04346678152419755</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2334726740.51124</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2040855816.805861</v>
+        <v>1666773422.186129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08844482372598166</v>
+        <v>0.1263852509514811</v>
       </c>
       <c r="G30" t="n">
-        <v>0.031707782575383</v>
+        <v>0.0363195598130215</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1020427950.267462</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1413478375.208048</v>
+        <v>1237229316.9723</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07142275012574735</v>
+        <v>0.1037029431772333</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05165813622220122</v>
+        <v>0.03212755084546202</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>706739088.6152114</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1479152732.761973</v>
+        <v>1303664827.476137</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1119151842346695</v>
+        <v>0.1009904714189461</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03688258943885652</v>
+        <v>0.03444248536074442</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>739576430.1779623</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3062207167.660942</v>
+        <v>2798337357.062598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1281181513773703</v>
+        <v>0.1712816979595777</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03713327694319033</v>
+        <v>0.05615503307907831</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1531103573.958968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1334821569.009402</v>
+        <v>985172660.4114571</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1203675560228776</v>
+        <v>0.09616140522772866</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02583314006130289</v>
+        <v>0.01834657349611282</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>667410767.259455</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1344931202.311338</v>
+        <v>934143457.9294311</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1066611315060632</v>
+        <v>0.1165055475742197</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03679667756477486</v>
+        <v>0.03623812095177928</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>672465543.8349339</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2037130383.49527</v>
+        <v>2860778570.470407</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1452259692723591</v>
+        <v>0.1355472428669411</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01937516320787408</v>
+        <v>0.02637119971753477</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1018565250.618684</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2699200197.264573</v>
+        <v>1845774996.574653</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08530128573579962</v>
+        <v>0.08385583497918812</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03502557179319161</v>
+        <v>0.03728586176848003</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1349600221.888253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1707843991.186223</v>
+        <v>1676206939.625327</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1218894478002624</v>
+        <v>0.1126775200065383</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03084292556735169</v>
+        <v>0.02529405056480946</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>853922015.266803</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2009589739.820628</v>
+        <v>1499969016.101154</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1480746938602092</v>
+        <v>0.1488025200289671</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0296737410176559</v>
+        <v>0.02557373834751878</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1004794862.808631</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1129523875.657728</v>
+        <v>1140568621.618504</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1440056261786218</v>
+        <v>0.1246087498270334</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04855600562255732</v>
+        <v>0.04871710630209694</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>564761996.5498989</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2066984086.303631</v>
+        <v>2882956381.57466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1641393391446626</v>
+        <v>0.1090599342656859</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03892011785181418</v>
+        <v>0.02955149229252622</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1033492110.518603</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4284434089.271007</v>
+        <v>3976069853.535676</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07809269867703725</v>
+        <v>0.08388627619869998</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04376156697333347</v>
+        <v>0.03381217156048028</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2142217093.334151</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2048049135.026484</v>
+        <v>2190210920.549066</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1309646923260343</v>
+        <v>0.1811215665033144</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02281364441146069</v>
+        <v>0.01997710510687456</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1024024661.336362</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1477308058.083561</v>
+        <v>1892927056.533514</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06237565112548676</v>
+        <v>0.08679693503973283</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03680938846439866</v>
+        <v>0.03534491417674659</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>738654030.8952047</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1554495118.326638</v>
+        <v>2259844598.620894</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1800759978868011</v>
+        <v>0.1700398946873783</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05215857399406633</v>
+        <v>0.05602133042021937</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>777247504.924019</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3867737942.069994</v>
+        <v>4843555675.183659</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1712616216256606</v>
+        <v>0.1309079339360664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03748253873039429</v>
+        <v>0.05602016067772201</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1933868932.790039</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4723902359.221088</v>
+        <v>3865402180.494071</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1671560889377522</v>
+        <v>0.1432327031770155</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04096473113145399</v>
+        <v>0.04973432300417679</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2361951219.593584</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4672730270.324443</v>
+        <v>4639444833.928227</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09688984874826387</v>
+        <v>0.09943926853104219</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0307952041042516</v>
+        <v>0.03536136209074675</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2336365130.246496</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1587741645.104641</v>
+        <v>1974588067.312404</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1504492479710319</v>
+        <v>0.1901941792588481</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03092283824567762</v>
+        <v>0.03890959022191615</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>793870840.7329061</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3903098445.20438</v>
+        <v>3744952694.058915</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1613373083165312</v>
+        <v>0.1416937799526658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03470736678249171</v>
+        <v>0.05311866360207167</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1951549217.947651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1359705070.666566</v>
+        <v>1345635365.344158</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1677735472285774</v>
+        <v>0.1270052509746126</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04681113722705022</v>
+        <v>0.05273142822169782</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>679852560.7885177</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4476912977.886008</v>
+        <v>4709096553.790014</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084988934828853</v>
+        <v>0.09035699086580533</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03886487933142632</v>
+        <v>0.05664732489923694</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2238456517.149744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2349950814.657022</v>
+        <v>3293239003.702718</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1435118596904826</v>
+        <v>0.190175610774431</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0260057281418351</v>
+        <v>0.0259344693342157</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1174975484.456202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3237938718.575808</v>
+        <v>4019364700.501359</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1500472121841483</v>
+        <v>0.1064701187982545</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04624154025977837</v>
+        <v>0.03766711427708577</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1618969363.344953</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3309814966.31587</v>
+        <v>3626608938.440428</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2227788648403711</v>
+        <v>0.1678270349250847</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02041440990682254</v>
+        <v>0.02881082338114505</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1654907427.40307</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1650874018.374108</v>
+        <v>1478275367.981669</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1253040653109865</v>
+        <v>0.1180918276315674</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05069768945804904</v>
+        <v>0.04991263105289078</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>825437028.9254628</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3313329745.168172</v>
+        <v>2886326475.538848</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1724734983896503</v>
+        <v>0.134027515004863</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02450135904096902</v>
+        <v>0.01796542633859914</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1656664903.087729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1390640408.854338</v>
+        <v>1285208588.461092</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1585272194394653</v>
+        <v>0.1596092459605026</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02915383127918503</v>
+        <v>0.02595364851154601</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>695320245.3125421</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4620218607.194648</v>
+        <v>4677782777.305279</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09796416215868455</v>
+        <v>0.1020226528475598</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04612822705189076</v>
+        <v>0.05017043392815143</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2310109249.423711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3440816791.041945</v>
+        <v>2660802382.788158</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1788408313512921</v>
+        <v>0.1457836859554465</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02091233656900754</v>
+        <v>0.03298765972138382</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1720408511.865024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3187295821.977973</v>
+        <v>2997127928.61741</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1232956226986076</v>
+        <v>0.1572481033227375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02102103063139339</v>
+        <v>0.02557980403777139</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1593647873.577847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1357150971.764295</v>
+        <v>1549454089.802605</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1234791487576796</v>
+        <v>0.1832374620526711</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03319006734832706</v>
+        <v>0.03846576987409295</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>678575447.3062612</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4261780634.721535</v>
+        <v>4746953718.069159</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07993152711711705</v>
+        <v>0.08774487475458369</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03673269016795389</v>
+        <v>0.0304633963187931</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2130890367.860629</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5132833261.926931</v>
+        <v>3918788476.350607</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1517076768483083</v>
+        <v>0.1278008388439033</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02370420133325909</v>
+        <v>0.03030412515632552</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2566416746.322649</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5437249776.946246</v>
+        <v>5115397724.617458</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1327989693567778</v>
+        <v>0.1063540932843785</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02050697473696483</v>
+        <v>0.02981538576998086</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2718624821.082629</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4529269479.459853</v>
+        <v>5305506208.182933</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1406245130122553</v>
+        <v>0.14170051139567</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03266758594077691</v>
+        <v>0.04304192816055447</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2264634741.454021</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2495756375.21971</v>
+        <v>2612414340.359107</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022472085430207</v>
+        <v>0.06719039159674628</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04037083986097893</v>
+        <v>0.03247978208185728</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1247878248.313213</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5677730561.684826</v>
+        <v>5559885950.515484</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1422042817700518</v>
+        <v>0.09647276448755057</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03718424542123373</v>
+        <v>0.03951243357552992</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2838865378.065557</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2106894075.493521</v>
+        <v>1777015619.569265</v>
       </c>
       <c r="F69" t="n">
-        <v>0.162758908079646</v>
+        <v>0.1208051191734916</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04794003754935128</v>
+        <v>0.0533864553408077</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1053447056.321158</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3377388834.187711</v>
+        <v>3310866786.811083</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07211404636228126</v>
+        <v>0.09615561807287114</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03445968666484021</v>
+        <v>0.04449473807589305</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1688694418.422174</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4285940693.378124</v>
+        <v>5239364705.261495</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1292442693669473</v>
+        <v>0.1735654456649263</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02730039365309804</v>
+        <v>0.0338205156678528</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2142970398.893376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1612925926.500458</v>
+        <v>1468818638.74102</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07545749393749715</v>
+        <v>0.09287088910268471</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03251494152946727</v>
+        <v>0.05149789704239197</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>806462971.8434808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2289151278.341752</v>
+        <v>3054998305.350755</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07802587428746181</v>
+        <v>0.1031127114354492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03849521671656976</v>
+        <v>0.03889080782982365</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1144575699.983425</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2887116999.453894</v>
+        <v>2715724909.454386</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1282365747098326</v>
+        <v>0.1661927205955064</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0307285066105502</v>
+        <v>0.03194939795661565</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1443558574.681061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1893814704.91885</v>
+        <v>2116409286.200097</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553731117394548</v>
+        <v>0.1380098475468549</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03368213371520087</v>
+        <v>0.0319566797269346</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>946907326.3640028</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3963415688.822462</v>
+        <v>4020719940.403642</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08373129343916567</v>
+        <v>0.107811864217161</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02914477273546225</v>
+        <v>0.03270708434276523</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1981707827.387861</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2303877627.285254</v>
+        <v>2014331602.69108</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1549479595989197</v>
+        <v>0.1437392954571356</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02570591822466177</v>
+        <v>0.01970661888924376</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1151938919.783527</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4619658102.843905</v>
+        <v>3779608450.322257</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0898379510426848</v>
+        <v>0.1135242455690969</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05097254706149327</v>
+        <v>0.0395975585608169</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>10</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2309828972.57984</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529062127.807912</v>
+        <v>1259713528.728063</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1156959704574641</v>
+        <v>0.1609490543199286</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03225264045305723</v>
+        <v>0.03903515751727182</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>764531103.0159074</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4983687505.21824</v>
+        <v>4005870795.083549</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08779834622741142</v>
+        <v>0.08183282313544371</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03039900869975564</v>
+        <v>0.03669443599636284</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2491843800.775138</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4696508933.580462</v>
+        <v>5048152410.288331</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1318576897913767</v>
+        <v>0.1148428164710589</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02726792496961159</v>
+        <v>0.02513108584443131</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2348254455.648728</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4776096542.570361</v>
+        <v>3796931397.407943</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1551497688412652</v>
+        <v>0.1545158768905641</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02297504284627852</v>
+        <v>0.02526535197065117</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2388048267.540161</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1644116296.268357</v>
+        <v>1964618558.970893</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0990712282906102</v>
+        <v>0.1495785267691911</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04555350305351583</v>
+        <v>0.03387548831342006</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>822058088.9007503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2333309135.135205</v>
+        <v>2191136503.240219</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09316912787073033</v>
+        <v>0.08243136453796276</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03743443510200117</v>
+        <v>0.05095083596442136</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1166654523.536615</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3562432762.031382</v>
+        <v>3612554196.609074</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1268711596881577</v>
+        <v>0.1205107576253651</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04662226368502076</v>
+        <v>0.05629214194130373</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1781216503.043389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2671173411.704377</v>
+        <v>1758786852.899969</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1245247548837944</v>
+        <v>0.1246584040918218</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02364143400654506</v>
+        <v>0.01681551780548523</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1335586826.526496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1469190197.675757</v>
+        <v>1488529116.113906</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1795936645740399</v>
+        <v>0.1536167343142302</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02783365046218154</v>
+        <v>0.04309112967106412</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>734595223.2209443</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3412370120.450165</v>
+        <v>2562105052.583097</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1644820045208652</v>
+        <v>0.1344410218278979</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03645737852437642</v>
+        <v>0.02591177441000272</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1706185131.225528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3379559228.22362</v>
+        <v>2715624157.988315</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1294219236318844</v>
+        <v>0.137286391510521</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03384631654103918</v>
+        <v>0.03922732880215683</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1689779624.160678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1988066495.112308</v>
+        <v>1975307943.519176</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08578527815520011</v>
+        <v>0.1113867760306201</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0398265206468078</v>
+        <v>0.04120602786098584</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>994033315.4389557</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1896456573.161486</v>
+        <v>1790955526.212375</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1444706007211779</v>
+        <v>0.1570401356068875</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04907033283270631</v>
+        <v>0.05273506634088427</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>948228272.4028643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2273049645.368381</v>
+        <v>1994749190.060407</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09135850216477186</v>
+        <v>0.09481314677316599</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03433849619133116</v>
+        <v>0.04211301000290613</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1136524789.259418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4564070242.454537</v>
+        <v>3654944934.022714</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09949148131716312</v>
+        <v>0.1302834647306179</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03468170429295103</v>
+        <v>0.03785439433441336</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2282035085.13844</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2202258057.828279</v>
+        <v>1606526474.349629</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1375467001723229</v>
+        <v>0.1456948303277007</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0303431429295065</v>
+        <v>0.04152088974900883</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1101129053.433033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2865092866.784689</v>
+        <v>2298889010.214393</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1005713968906547</v>
+        <v>0.08554459709177224</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04265356922438587</v>
+        <v>0.05157652250907933</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1432546442.747217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1658568243.67988</v>
+        <v>2373965032.131071</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1396630818763457</v>
+        <v>0.08790594855247799</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03964271021847425</v>
+        <v>0.03191372591746212</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>829284145.0412718</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3902588453.322361</v>
+        <v>3267555348.528675</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1452256381483624</v>
+        <v>0.1599425044480975</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02067205695170045</v>
+        <v>0.02910967155680399</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1951294275.018303</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3624768208.932261</v>
+        <v>3078607804.391726</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07974525624025453</v>
+        <v>0.1071240929961066</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02508134704888764</v>
+        <v>0.02188895749481091</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1812384131.32097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2363457269.765848</v>
+        <v>2480623087.358867</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1029338559850353</v>
+        <v>0.09536882001476256</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02716054659721076</v>
+        <v>0.02703148632460409</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1181728574.356317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4318369240.574525</v>
+        <v>3560231051.499129</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1592006438871736</v>
+        <v>0.1704995773404212</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02638116679487807</v>
+        <v>0.02129373130274365</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2159184716.145871</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3305587583.184384</v>
+        <v>2875945047.517076</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2033307721435266</v>
+        <v>0.1391298698341391</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0581215187748457</v>
+        <v>0.04897422487034958</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1652793920.810874</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2312967533.6029</v>
+        <v>1607910042.367567</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08646487960381291</v>
+        <v>0.1006761631841412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03410375411894429</v>
+        <v>0.04117607755150123</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2563029793.447013</v>
+        <v>1953553273.015917</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1471721843218384</v>
+        <v>0.1832598646737159</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03678969607983625</v>
+        <v>0.03393776527322796</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4007361331.693257</v>
+        <v>3366258726.261889</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1556856576969817</v>
+        <v>0.1016444406430861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03081106667163687</v>
+        <v>0.02362005292770131</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3263255598.025677</v>
+        <v>2570545336.940428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08535715003290754</v>
+        <v>0.06832883407073229</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03262173244871568</v>
+        <v>0.03574960933388333</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1744063812.262379</v>
+        <v>1823948546.274891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1159965162975571</v>
+        <v>0.1180278788338269</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05099125418994041</v>
+        <v>0.0410651207822764</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2325530615.107327</v>
+        <v>2272768317.786694</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09340571739759178</v>
+        <v>0.06476079370342977</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03825526744449134</v>
+        <v>0.03718729413616308</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3478422763.452871</v>
+        <v>3073398013.16076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1379437184486616</v>
+        <v>0.2063867410547272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02504841611991391</v>
+        <v>0.03288448368322822</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1587137349.017114</v>
+        <v>2243480106.534082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1301221066943708</v>
+        <v>0.177544393964663</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02399248506192967</v>
+        <v>0.03542973519223559</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5036607584.514976</v>
+        <v>3632806105.206427</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1629094481203577</v>
+        <v>0.1791005967691167</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04092657419217004</v>
+        <v>0.05046528510219595</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3763662241.253247</v>
+        <v>4103484409.874756</v>
       </c>
       <c r="F11" t="n">
-        <v>0.186946119902034</v>
+        <v>0.1644359527498314</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04507288528187963</v>
+        <v>0.04696977024066547</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2957346616.832773</v>
+        <v>2671034712.398087</v>
       </c>
       <c r="F12" t="n">
-        <v>0.126281877720728</v>
+        <v>0.1927238932183881</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04717458220473804</v>
+        <v>0.0430121768909769</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3687249153.616704</v>
+        <v>4598979324.775087</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07445641008235675</v>
+        <v>0.07929024983026246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02098331224055828</v>
+        <v>0.02478771339545296</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2742090895.37134</v>
+        <v>3470610036.621888</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1356241102514835</v>
+        <v>0.1155801162751566</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03841046326670183</v>
+        <v>0.03876232113664756</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1364096320.552674</v>
+        <v>1494270840.620785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07833726693977223</v>
+        <v>0.1025812532775851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04802289250918092</v>
+        <v>0.04887019352890534</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1806416347.702112</v>
+        <v>1752106811.622398</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1156359861673217</v>
+        <v>0.1088941729785848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0493746383868551</v>
+        <v>0.0387766665770785</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4231051173.84488</v>
+        <v>4866842753.078968</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639990493735007</v>
+        <v>0.1320223460257039</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03425913390325772</v>
+        <v>0.03801930952146965</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2931944762.09272</v>
+        <v>3493539950.692222</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1776316530075129</v>
+        <v>0.1304721592183163</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02222497302949062</v>
+        <v>0.03051677823532131</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1146321164.351275</v>
+        <v>896138909.6377815</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1652373134298781</v>
+        <v>0.1245397559776537</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01685266737720709</v>
+        <v>0.02539297508431743</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2135080446.783785</v>
+        <v>1857895730.402992</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1342312403296705</v>
+        <v>0.1480977322503403</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02068357869023832</v>
+        <v>0.0255640626422784</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1985272257.119082</v>
+        <v>1748142513.230074</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06463314607919703</v>
+        <v>0.07639243341017013</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04375347664341351</v>
+        <v>0.04351585604830825</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3052201995.708873</v>
+        <v>2992485755.484661</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1340372419626977</v>
+        <v>0.114601497811631</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05340736239798233</v>
+        <v>0.04058282315077927</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1517430648.817589</v>
+        <v>961599663.3722762</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1558745193827633</v>
+        <v>0.153836316607891</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04862068683214684</v>
+        <v>0.04638832228935936</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3735494021.503732</v>
+        <v>3490291190.41824</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1413524759095484</v>
+        <v>0.1469442921829212</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0229374760305267</v>
+        <v>0.03533798294955649</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>992698086.0881333</v>
+        <v>985646926.9688116</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07540522664696921</v>
+        <v>0.0901454949246295</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02696797799568882</v>
+        <v>0.02870316327339335</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1182713680.409703</v>
+        <v>1318466506.444703</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1155281129045522</v>
+        <v>0.09371230152589012</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03746680222464089</v>
+        <v>0.02596872165980588</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4635030354.303816</v>
+        <v>4416110080.491356</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1552290810507084</v>
+        <v>0.1297191767941634</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02130759239709461</v>
+        <v>0.02252855745308279</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3413296595.043502</v>
+        <v>3483031735.08821</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1128520235570439</v>
+        <v>0.1411738321327633</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03464776009123618</v>
+        <v>0.04204558266549268</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4886146972.166893</v>
+        <v>3641069023.276201</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1209518485172541</v>
+        <v>0.09227156334182815</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04346678152419755</v>
+        <v>0.04327849737290327</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1666773422.186129</v>
+        <v>2042879176.324646</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1263852509514811</v>
+        <v>0.1347674057862429</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0363195598130215</v>
+        <v>0.02870313515004293</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1237229316.9723</v>
+        <v>1107289865.594429</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1037029431772333</v>
+        <v>0.111352862308944</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03212755084546202</v>
+        <v>0.0427482966176821</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1303664827.476137</v>
+        <v>1626829428.733867</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1009904714189461</v>
+        <v>0.08964727941470452</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03444248536074442</v>
+        <v>0.03716718956033441</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2798337357.062598</v>
+        <v>2875930774.865496</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1712816979595777</v>
+        <v>0.1944724691621338</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05615503307907831</v>
+        <v>0.05110828262312328</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>985172660.4114571</v>
+        <v>1272234847.007364</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09616140522772866</v>
+        <v>0.09128777098192808</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01834657349611282</v>
+        <v>0.01784893433196473</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>934143457.9294311</v>
+        <v>1161082969.192967</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1165055475742197</v>
+        <v>0.08600208101044286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03623812095177928</v>
+        <v>0.03008429766486483</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2860778570.470407</v>
+        <v>2057630139.264266</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1355472428669411</v>
+        <v>0.1378674733675773</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02637119971753477</v>
+        <v>0.01794037052909661</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1845774996.574653</v>
+        <v>2552166299.845013</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08385583497918812</v>
+        <v>0.09092730056705442</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03728586176848003</v>
+        <v>0.03145942554632044</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1676206939.625327</v>
+        <v>2044688318.815937</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1126775200065383</v>
+        <v>0.09202136617259003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02529405056480946</v>
+        <v>0.03110114678682673</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1499969016.101154</v>
+        <v>1402522392.532201</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1488025200289671</v>
+        <v>0.1756226226997357</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02557373834751878</v>
+        <v>0.02040333328846729</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1140568621.618504</v>
+        <v>1313826997.216954</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246087498270334</v>
+        <v>0.104487349834467</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04871710630209694</v>
+        <v>0.05962235087094458</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2882956381.57466</v>
+        <v>2509567394.190897</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1090599342656859</v>
+        <v>0.1656429129920427</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02955149229252622</v>
+        <v>0.04595699554839644</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3976069853.535676</v>
+        <v>4081963143.627456</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08388627619869998</v>
+        <v>0.1242382236769207</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03381217156048028</v>
+        <v>0.03561113363822367</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2190210920.549066</v>
+        <v>2675669329.643491</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1811215665033144</v>
+        <v>0.1631753611138583</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01997710510687456</v>
+        <v>0.02523425678099289</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1892927056.533514</v>
+        <v>1838347450.022336</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08679693503973283</v>
+        <v>0.07585021382015643</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03534491417674659</v>
+        <v>0.02317927389612976</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2259844598.620894</v>
+        <v>1815770286.844728</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1700398946873783</v>
+        <v>0.1439663576094375</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05602133042021937</v>
+        <v>0.05493982812063875</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4843555675.183659</v>
+        <v>4540561666.583214</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1309079339360664</v>
+        <v>0.1786840608997111</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05602016067772201</v>
+        <v>0.04575258396022652</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3865402180.494071</v>
+        <v>4930276768.910287</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1432327031770155</v>
+        <v>0.154818249171834</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04973432300417679</v>
+        <v>0.03726195845875983</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4639444833.928227</v>
+        <v>3424655402.02297</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09943926853104219</v>
+        <v>0.1046980152237308</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03536136209074675</v>
+        <v>0.03046880125733823</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1974588067.312404</v>
+        <v>1263061019.275614</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1901941792588481</v>
+        <v>0.1702045076713918</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03890959022191615</v>
+        <v>0.029209636554433</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3744952694.058915</v>
+        <v>3266861893.91948</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1416937799526658</v>
+        <v>0.1717014186616569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05311866360207167</v>
+        <v>0.05249553476602963</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1345635365.344158</v>
+        <v>1114383705.273518</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1270052509746126</v>
+        <v>0.1717505610873213</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05273142822169782</v>
+        <v>0.04416725638955751</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4709096553.790014</v>
+        <v>4742991008.207508</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09035699086580533</v>
+        <v>0.1386442109030659</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05664732489923694</v>
+        <v>0.04363691481386255</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3293239003.702718</v>
+        <v>3421611873.207086</v>
       </c>
       <c r="F53" t="n">
-        <v>0.190175610774431</v>
+        <v>0.1665554475285252</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0259344693342157</v>
+        <v>0.02308200324693844</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4019364700.501359</v>
+        <v>3956246065.445092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1064701187982545</v>
+        <v>0.1042668328996805</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03766711427708577</v>
+        <v>0.0449947435782924</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3626608938.440428</v>
+        <v>4550244249.57203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1678270349250847</v>
+        <v>0.2019936817697916</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02881082338114505</v>
+        <v>0.03077894466744032</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1478275367.981669</v>
+        <v>1820512486.709682</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1180918276315674</v>
+        <v>0.1130690475799683</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04991263105289078</v>
+        <v>0.04045294066038676</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2886326475.538848</v>
+        <v>4199956353.889194</v>
       </c>
       <c r="F57" t="n">
-        <v>0.134027515004863</v>
+        <v>0.1567758208936966</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01796542633859914</v>
+        <v>0.02393363093899248</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1285208588.461092</v>
+        <v>1679315252.001212</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1596092459605026</v>
+        <v>0.1601677797974939</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02595364851154601</v>
+        <v>0.02604141865267382</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4677782777.305279</v>
+        <v>4751499361.961683</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1020226528475598</v>
+        <v>0.1088737061173149</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05017043392815143</v>
+        <v>0.05012454580970852</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2660802382.788158</v>
+        <v>3627656123.117439</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1457836859554465</v>
+        <v>0.1259118885648455</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03298765972138382</v>
+        <v>0.02164112178829949</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2997127928.61741</v>
+        <v>2238081456.480528</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1572481033227375</v>
+        <v>0.1310077696837035</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02557980403777139</v>
+        <v>0.02858855397609867</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1549454089.802605</v>
+        <v>1755024618.231243</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1832374620526711</v>
+        <v>0.1351121876140301</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03846576987409295</v>
+        <v>0.04772011791349472</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4746953718.069159</v>
+        <v>5617327031.780613</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08774487475458369</v>
+        <v>0.09170811827995733</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0304633963187931</v>
+        <v>0.02989337776327276</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3918788476.350607</v>
+        <v>5327420963.132116</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1278008388439033</v>
+        <v>0.1753020164952759</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03030412515632552</v>
+        <v>0.02327210944220471</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5115397724.617458</v>
+        <v>5495793739.687431</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1063540932843785</v>
+        <v>0.1342488945072126</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02981538576998086</v>
+        <v>0.02714693396266577</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5305506208.182933</v>
+        <v>5080630846.623552</v>
       </c>
       <c r="F66" t="n">
-        <v>0.14170051139567</v>
+        <v>0.1020633300030264</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04304192816055447</v>
+        <v>0.05069450074119346</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2612414340.359107</v>
+        <v>2656044490.215087</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06719039159674628</v>
+        <v>0.06290508223779151</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03247978208185728</v>
+        <v>0.03625436121004345</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5559885950.515484</v>
+        <v>4926161731.147098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09647276448755057</v>
+        <v>0.1271744908374501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03951243357552992</v>
+        <v>0.03407845881235403</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1777015619.569265</v>
+        <v>2035063218.521492</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1208051191734916</v>
+        <v>0.1219754526675963</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0533864553408077</v>
+        <v>0.04500587530245749</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3310866786.811083</v>
+        <v>2973488731.305482</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09615561807287114</v>
+        <v>0.07769531322106144</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04449473807589305</v>
+        <v>0.0326465489399929</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5239364705.261495</v>
+        <v>4308715258.912461</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1735654456649263</v>
+        <v>0.1187947929182894</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0338205156678528</v>
+        <v>0.03333343130346216</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1468818638.74102</v>
+        <v>1559539125.42738</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09287088910268471</v>
+        <v>0.1018326011933344</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05149789704239197</v>
+        <v>0.05029987366794004</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3054998305.350755</v>
+        <v>2617929851.994528</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1031127114354492</v>
+        <v>0.1123385397729905</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03889080782982365</v>
+        <v>0.04345039917016156</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2715724909.454386</v>
+        <v>3267263233.058361</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1661927205955064</v>
+        <v>0.1517483307847445</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03194939795661565</v>
+        <v>0.02817563087933038</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2116409286.200097</v>
+        <v>2287483385.113007</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1380098475468549</v>
+        <v>0.1308701394948716</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0319566797269346</v>
+        <v>0.02765796689189567</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4020719940.403642</v>
+        <v>3406023145.054172</v>
       </c>
       <c r="F76" t="n">
-        <v>0.107811864217161</v>
+        <v>0.1092964512086706</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03270708434276523</v>
+        <v>0.03105477777808931</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2014331602.69108</v>
+        <v>1579391747.605301</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1437392954571356</v>
+        <v>0.1721773706667191</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01970661888924376</v>
+        <v>0.02006261509399058</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3779608450.322257</v>
+        <v>3534370737.001357</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1135242455690969</v>
+        <v>0.1053931393646789</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0395975585608169</v>
+        <v>0.05656487221940991</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1259713528.728063</v>
+        <v>1376535660.177753</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1609490543199286</v>
+        <v>0.134202886689146</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03903515751727182</v>
+        <v>0.02837225473624847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4005870795.083549</v>
+        <v>4084593073.251082</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08183282313544371</v>
+        <v>0.1020035838969783</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03669443599636284</v>
+        <v>0.02551202140877275</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5048152410.288331</v>
+        <v>4229632251.307561</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1148428164710589</v>
+        <v>0.1045874554199604</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02513108584443131</v>
+        <v>0.02807831883470999</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3796931397.407943</v>
+        <v>4271919082.728472</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1545158768905641</v>
+        <v>0.1768631900972022</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02526535197065117</v>
+        <v>0.02521962845052954</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1964618558.970893</v>
+        <v>1707215528.21173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1495785267691911</v>
+        <v>0.1191649383017249</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03387548831342006</v>
+        <v>0.04001824014245945</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2191136503.240219</v>
+        <v>2148432969.497818</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08243136453796276</v>
+        <v>0.1195637644863851</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05095083596442136</v>
+        <v>0.03167562897192441</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3612554196.609074</v>
+        <v>3448927323.893931</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1205107576253651</v>
+        <v>0.1624203074359509</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05629214194130373</v>
+        <v>0.04218583068448946</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1758786852.899969</v>
+        <v>2737053756.067002</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1246584040918218</v>
+        <v>0.1156110409313735</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01681551780548523</v>
+        <v>0.02576235609393992</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1488529116.113906</v>
+        <v>989572775.7012075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1536167343142302</v>
+        <v>0.1681929795303619</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04309112967106412</v>
+        <v>0.028560585635352</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2562105052.583097</v>
+        <v>3250054112.307611</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1344410218278979</v>
+        <v>0.1285335068220126</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02591177441000272</v>
+        <v>0.03885068551255847</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2715624157.988315</v>
+        <v>2329290819.662354</v>
       </c>
       <c r="F89" t="n">
-        <v>0.137286391510521</v>
+        <v>0.1045552640874693</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03922732880215683</v>
+        <v>0.02729616319179258</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1975307943.519176</v>
+        <v>1569555417.054286</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1113867760306201</v>
+        <v>0.08968970477586917</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04120602786098584</v>
+        <v>0.04245576731516459</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1790955526.212375</v>
+        <v>2044107728.675367</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1570401356068875</v>
+        <v>0.1360271774399786</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05273506634088427</v>
+        <v>0.04922382212645422</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1994749190.060407</v>
+        <v>2479599446.098835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09481314677316599</v>
+        <v>0.09337124955203181</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04211301000290613</v>
+        <v>0.04753974320775788</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3654944934.022714</v>
+        <v>3198103174.538536</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1302834647306179</v>
+        <v>0.1070042964221734</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03785439433441336</v>
+        <v>0.04228501369869277</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1606526474.349629</v>
+        <v>2318170243.803987</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1456948303277007</v>
+        <v>0.127983098048605</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04152088974900883</v>
+        <v>0.02723848387908578</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2298889010.214393</v>
+        <v>3063020088.796455</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08554459709177224</v>
+        <v>0.1145004135965981</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05157652250907933</v>
+        <v>0.04158385992318133</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2373965032.131071</v>
+        <v>2043777087.914072</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08790594855247799</v>
+        <v>0.1143473234754586</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03191372591746212</v>
+        <v>0.04224065939357068</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3267555348.528675</v>
+        <v>4394265537.351665</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1599425044480975</v>
+        <v>0.1465565768326478</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02910967155680399</v>
+        <v>0.02849533045605348</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3078607804.391726</v>
+        <v>3265073936.786975</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1071240929961066</v>
+        <v>0.1075714450632012</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02188895749481091</v>
+        <v>0.02224766517488062</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2480623087.358867</v>
+        <v>2685697758.516104</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09536882001476256</v>
+        <v>0.1259016318878776</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02703148632460409</v>
+        <v>0.02975461279047769</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3560231051.499129</v>
+        <v>3996311478.097478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1704995773404212</v>
+        <v>0.1212946593988151</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02129373130274365</v>
+        <v>0.02120426388135068</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2875945047.517076</v>
+        <v>3321063316.132944</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1391298698341391</v>
+        <v>0.1486669570766074</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04897422487034958</v>
+        <v>0.05137736909283985</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_28.xlsx
+++ b/output/fit_clients/fit_round_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1607910042.367567</v>
+        <v>2411902429.408112</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1006761631841412</v>
+        <v>0.1107444808286347</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04117607755150123</v>
+        <v>0.02913288529862608</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1953553273.015917</v>
+        <v>1704860343.564683</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1832598646737159</v>
+        <v>0.1281183174588662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03393776527322796</v>
+        <v>0.04315639350359463</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3366258726.261889</v>
+        <v>4557642077.290599</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1016444406430861</v>
+        <v>0.1066422520504594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02362005292770131</v>
+        <v>0.02855846809791236</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>28</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2570545336.940428</v>
+        <v>3997332599.178648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06832883407073229</v>
+        <v>0.1090440024908158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03574960933388333</v>
+        <v>0.03714563472053155</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1823948546.274891</v>
+        <v>2684437792.056418</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1180278788338269</v>
+        <v>0.1120507117172231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0410651207822764</v>
+        <v>0.03679433415572513</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2272768317.786694</v>
+        <v>2170181989.801765</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06476079370342977</v>
+        <v>0.06907514399978093</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03718729413616308</v>
+        <v>0.04337716222495826</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3073398013.16076</v>
+        <v>2983810539.863202</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2063867410547272</v>
+        <v>0.2141180758289797</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03288448368322822</v>
+        <v>0.02240796556493559</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2243480106.534082</v>
+        <v>1408166205.767316</v>
       </c>
       <c r="F9" t="n">
-        <v>0.177544393964663</v>
+        <v>0.1443754401982817</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03542973519223559</v>
+        <v>0.02977125687054358</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3632806105.206427</v>
+        <v>5380889444.912662</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1791005967691167</v>
+        <v>0.1961383230259458</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05046528510219595</v>
+        <v>0.05242334292358599</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.8393345016694</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4103484409.874756</v>
+        <v>2766421781.801009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1644359527498314</v>
+        <v>0.1689534544185515</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04696977024066547</v>
+        <v>0.04777316593583775</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2671034712.398087</v>
+        <v>2670063827.893326</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1927238932183881</v>
+        <v>0.1446886081905823</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0430121768909769</v>
+        <v>0.03601758628682623</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4598979324.775087</v>
+        <v>4769470657.207747</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07929024983026246</v>
+        <v>0.06519198309658027</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02478771339545296</v>
+        <v>0.02838024377743993</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27</v>
+      </c>
+      <c r="K13" t="n">
+        <v>211.9605722157621</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3470610036.621888</v>
+        <v>2387001442.736499</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1155801162751566</v>
+        <v>0.1721049741138288</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03876232113664756</v>
+        <v>0.04372812332757268</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1494270840.620785</v>
+        <v>1559703066.078054</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1025812532775851</v>
+        <v>0.07630590536736341</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04887019352890534</v>
+        <v>0.03861007492954178</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1752106811.622398</v>
+        <v>2623607128.352451</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1088941729785848</v>
+        <v>0.1070563355634617</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0387766665770785</v>
+        <v>0.04439399327088162</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4866842753.078968</v>
+        <v>4932798087.250139</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1320223460257039</v>
+        <v>0.1755120933874662</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03801930952146965</v>
+        <v>0.04562939393985695</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>28</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3493539950.692222</v>
+        <v>3137555246.315924</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1304721592183163</v>
+        <v>0.1817796105097068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03051677823532131</v>
+        <v>0.02305723483007223</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>896138909.6377815</v>
+        <v>1367457339.387252</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1245397559776537</v>
+        <v>0.1848312901158343</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02539297508431743</v>
+        <v>0.01807797843303675</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1857895730.402992</v>
+        <v>2337407169.06849</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1480977322503403</v>
+        <v>0.1443598235004438</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0255640626422784</v>
+        <v>0.02658249998704123</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1748142513.230074</v>
+        <v>1892511386.560582</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07639243341017013</v>
+        <v>0.09354322733138076</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04351585604830825</v>
+        <v>0.04046102507557428</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1205,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2992485755.484661</v>
+        <v>3347035621.903193</v>
       </c>
       <c r="F22" t="n">
-        <v>0.114601497811631</v>
+        <v>0.1219870666057181</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04058282315077927</v>
+        <v>0.05672467406327417</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>961599663.3722762</v>
+        <v>1278543757.239208</v>
       </c>
       <c r="F23" t="n">
-        <v>0.153836316607891</v>
+        <v>0.1360579171953918</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04638832228935936</v>
+        <v>0.04462613355274862</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3490291190.41824</v>
+        <v>4149610789.667901</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1469442921829212</v>
+        <v>0.09664380191483986</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03533798294955649</v>
+        <v>0.02442618394294302</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>28</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>985646926.9688116</v>
+        <v>937558288.6786194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0901454949246295</v>
+        <v>0.1023130904180601</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02870316327339335</v>
+        <v>0.02381721516679297</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318466506.444703</v>
+        <v>1253317521.618951</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09371230152589012</v>
+        <v>0.09760511068261693</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02596872165980588</v>
+        <v>0.02528249953289215</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4416110080.491356</v>
+        <v>3258177519.987367</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1297191767941634</v>
+        <v>0.1482222225292736</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02252855745308279</v>
+        <v>0.02627289180538262</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1415,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3483031735.08821</v>
+        <v>3883562516.563846</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1411738321327633</v>
+        <v>0.1012983654898522</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04204558266549268</v>
+        <v>0.03793697670256597</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1444,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3641069023.276201</v>
+        <v>5267882606.816688</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09227156334182815</v>
+        <v>0.1037937720059759</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04327849737290327</v>
+        <v>0.04281971029559705</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>26</v>
+      </c>
+      <c r="J29" t="n">
+        <v>28</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.8763170663129</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1481,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2042879176.324646</v>
+        <v>1556065607.712603</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1347674057862429</v>
+        <v>0.114428016249925</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02870313515004293</v>
+        <v>0.03583782252200945</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1107289865.594429</v>
+        <v>1442192263.477964</v>
       </c>
       <c r="F31" t="n">
-        <v>0.111352862308944</v>
+        <v>0.09225292837320531</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0427482966176821</v>
+        <v>0.0369237237039078</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626829428.733867</v>
+        <v>1800390989.931659</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08964727941470452</v>
+        <v>0.07468949849475463</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03716718956033441</v>
+        <v>0.02831361759777993</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1592,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2875930774.865496</v>
+        <v>2144839349.981018</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1944724691621338</v>
+        <v>0.1355423640551999</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05110828262312328</v>
+        <v>0.04409252493515039</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1621,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1272234847.007364</v>
+        <v>1171567084.617835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09128777098192808</v>
+        <v>0.08935386282746138</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01784893433196473</v>
+        <v>0.02508935100945804</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1161082969.192967</v>
+        <v>911521134.8714287</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08600208101044286</v>
+        <v>0.1172359643834912</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03008429766486483</v>
+        <v>0.03681515567032814</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1691,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2057630139.264266</v>
+        <v>2724364806.062307</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1378674733675773</v>
+        <v>0.1589305302586931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01794037052909661</v>
+        <v>0.02160822397549812</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1726,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2552166299.845013</v>
+        <v>2347819041.356269</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09092730056705442</v>
+        <v>0.07937978123371976</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03145942554632044</v>
+        <v>0.03186537919698257</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2044688318.815937</v>
+        <v>1925276922.723701</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09202136617259003</v>
+        <v>0.1046419920851481</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03110114678682673</v>
+        <v>0.0298156550870413</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1796,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1402522392.532201</v>
+        <v>1998823647.183751</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1756226226997357</v>
+        <v>0.1552579455169277</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02040333328846729</v>
+        <v>0.02449183346049238</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1313826997.216954</v>
+        <v>1711070311.452163</v>
       </c>
       <c r="F40" t="n">
-        <v>0.104487349834467</v>
+        <v>0.1120695942468818</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05962235087094458</v>
+        <v>0.05989836006980634</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2509567394.190897</v>
+        <v>1954086725.495934</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1656429129920427</v>
+        <v>0.1169969380539987</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04595699554839644</v>
+        <v>0.03492880962641675</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1901,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4081963143.627456</v>
+        <v>3375523872.675993</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1242382236769207</v>
+        <v>0.090036120754678</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03561113363822367</v>
+        <v>0.04031211783604716</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="n">
+        <v>157.3756569357333</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2675669329.643491</v>
+        <v>1938090215.229025</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1631753611138583</v>
+        <v>0.1535951784345734</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02523425678099289</v>
+        <v>0.02447773976925597</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1838347450.022336</v>
+        <v>1854703698.473357</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07585021382015643</v>
+        <v>0.09239039402800389</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02317927389612976</v>
+        <v>0.0366032960118118</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1815770286.844728</v>
+        <v>1960581520.530278</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1439663576094375</v>
+        <v>0.1183780383697904</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05493982812063875</v>
+        <v>0.03813632283465435</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2049,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4540561666.583214</v>
+        <v>4471225773.498046</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1786840608997111</v>
+        <v>0.1167534434141438</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04575258396022652</v>
+        <v>0.03972300217655977</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>27</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.904933308707</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2080,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4930276768.910287</v>
+        <v>4992348654.86204</v>
       </c>
       <c r="F47" t="n">
-        <v>0.154818249171834</v>
+        <v>0.1494377803776911</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03726195845875983</v>
+        <v>0.04428011642826644</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2121,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3424655402.02297</v>
+        <v>3043532518.134531</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046980152237308</v>
+        <v>0.1041967727417669</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03046880125733823</v>
+        <v>0.02908012625153822</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>27</v>
+      </c>
+      <c r="K48" t="n">
+        <v>128.026727098867</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1263061019.275614</v>
+        <v>1495070342.409286</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1702045076713918</v>
+        <v>0.1430285498093161</v>
       </c>
       <c r="G49" t="n">
-        <v>0.029209636554433</v>
+        <v>0.03239829678340442</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3266861893.91948</v>
+        <v>3856041032.156473</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1717014186616569</v>
+        <v>0.1314988128824919</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05249553476602963</v>
+        <v>0.03669790872226238</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>28</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2228,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1114383705.273518</v>
+        <v>1339085379.101209</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1717505610873213</v>
+        <v>0.1530758499322761</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04416725638955751</v>
+        <v>0.04223198956644364</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4742991008.207508</v>
+        <v>3900201155.293867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1386442109030659</v>
+        <v>0.1363375253120044</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04363691481386255</v>
+        <v>0.05287252040684449</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="n">
+        <v>28</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.348643097191</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3421611873.207086</v>
+        <v>2573275649.954992</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1665554475285252</v>
+        <v>0.1712911621296282</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02308200324693844</v>
+        <v>0.02815573684173537</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+      <c r="K53" t="n">
+        <v>85.68755405731189</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3956246065.445092</v>
+        <v>3423469008.988627</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1042668328996805</v>
+        <v>0.1524590554358493</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0449947435782924</v>
+        <v>0.04036411165859206</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>28</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4550244249.57203</v>
+        <v>3149606116.200875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2019936817697916</v>
+        <v>0.2220405992332966</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03077894466744032</v>
+        <v>0.02567111538891728</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="n">
+        <v>120.3669607525508</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1820512486.709682</v>
+        <v>1620365544.824332</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1130690475799683</v>
+        <v>0.119568709220415</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04045294066038676</v>
+        <v>0.03677307608901781</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4199956353.889194</v>
+        <v>4109058587.387325</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1567758208936966</v>
+        <v>0.1659047908737925</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02393363093899248</v>
+        <v>0.01826546081000881</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>28</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1679315252.001212</v>
+        <v>1178702708.629133</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1601677797974939</v>
+        <v>0.1623089231013394</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02604141865267382</v>
+        <v>0.03316839868070743</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4751499361.961683</v>
+        <v>3298443124.931094</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1088737061173149</v>
+        <v>0.1132929959026646</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05012454580970852</v>
+        <v>0.0456159940905637</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3627656123.117439</v>
+        <v>2294715283.957801</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1259118885648455</v>
+        <v>0.1424888332282191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02164112178829949</v>
+        <v>0.02376332845134051</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="n">
+        <v>69.54904955756993</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2238081456.480528</v>
+        <v>2535461942.120982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1310077696837035</v>
+        <v>0.1710870388646178</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02858855397609867</v>
+        <v>0.02742748364977961</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1755024618.231243</v>
+        <v>1443392078.227435</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1351121876140301</v>
+        <v>0.1481388920607696</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04772011791349472</v>
+        <v>0.04191033899201046</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5617327031.780613</v>
+        <v>4113160018.994254</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09170811827995733</v>
+        <v>0.07492053344772082</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02989337776327276</v>
+        <v>0.04731321339934272</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>28</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5327420963.132116</v>
+        <v>3398762979.28963</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1753020164952759</v>
+        <v>0.1329718718293906</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02327210944220471</v>
+        <v>0.02853190564587997</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="n">
+        <v>27</v>
+      </c>
+      <c r="K64" t="n">
+        <v>152.6694993376985</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5495793739.687431</v>
+        <v>5671757458.201976</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1342488945072126</v>
+        <v>0.1730636436421311</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02714693396266577</v>
+        <v>0.03178191397082322</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>28</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.269780166078</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5080630846.623552</v>
+        <v>5094081749.322436</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1020633300030264</v>
+        <v>0.1629823883129541</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05069450074119346</v>
+        <v>0.03717711752887945</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>27</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.5767788603193</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2656044490.215087</v>
+        <v>2312878674.014308</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06290508223779151</v>
+        <v>0.08318334890832893</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03625436121004345</v>
+        <v>0.03706071252651517</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4926161731.147098</v>
+        <v>5209148560.616746</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1271744908374501</v>
+        <v>0.1479031007929195</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03407845881235403</v>
+        <v>0.05007571594938066</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="n">
+        <v>202.0394221473837</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2035063218.521492</v>
+        <v>2017635953.694374</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1219754526675963</v>
+        <v>0.1663077472768204</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04500587530245749</v>
+        <v>0.05722467032932686</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2973488731.305482</v>
+        <v>3595782183.090714</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07769531322106144</v>
+        <v>0.09717027287030837</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0326465489399929</v>
+        <v>0.04201045694791026</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="n">
+        <v>167.3479843046155</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4308715258.912461</v>
+        <v>5106344128.430325</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187947929182894</v>
+        <v>0.1341099913447128</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03333343130346216</v>
+        <v>0.03199618017900197</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>22</v>
+      </c>
+      <c r="J71" t="n">
+        <v>28</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.3539421462944</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1559539125.42738</v>
+        <v>2044779492.348549</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1018326011933344</v>
+        <v>0.06661904395024759</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05029987366794004</v>
+        <v>0.03577499272329569</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2617929851.994528</v>
+        <v>2676869223.299465</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1123385397729905</v>
+        <v>0.1115572647257393</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04345039917016156</v>
+        <v>0.04862581831731683</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3267263233.058361</v>
+        <v>2452621147.4695</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1517483307847445</v>
+        <v>0.1411761694634257</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02817563087933038</v>
+        <v>0.03485983503858354</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>26</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2287483385.113007</v>
+        <v>2421458577.307707</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1308701394948716</v>
+        <v>0.1246549232585041</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02765796689189567</v>
+        <v>0.03400641593263039</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3406023145.054172</v>
+        <v>4245185277.51817</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1092964512086706</v>
+        <v>0.1101706771672131</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03105477777808931</v>
+        <v>0.02393361948816214</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>27</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.587964286713</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1579391747.605301</v>
+        <v>1937294976.269858</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1721773706667191</v>
+        <v>0.1842196641442814</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02006261509399058</v>
+        <v>0.02198459025560549</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3534370737.001357</v>
+        <v>4350582546.768787</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1053931393646789</v>
+        <v>0.1009421631427848</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05656487221940991</v>
+        <v>0.04740453448850126</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>28</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1376535660.177753</v>
+        <v>1494274035.242521</v>
       </c>
       <c r="F79" t="n">
-        <v>0.134202886689146</v>
+        <v>0.1313545606810441</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02837225473624847</v>
+        <v>0.02832261063674206</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4084593073.251082</v>
+        <v>4635473533.963787</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020035838969783</v>
+        <v>0.1057621703171186</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02551202140877275</v>
+        <v>0.02542822517485656</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>28</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4229632251.307561</v>
+        <v>3326868101.471196</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045874554199604</v>
+        <v>0.1106399245064717</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02807831883470999</v>
+        <v>0.03215383736824274</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,17 +3335,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4271919082.728472</v>
+        <v>3807532396.720921</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1768631900972022</v>
+        <v>0.172964919142127</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02521962845052954</v>
+        <v>0.0236309316683661</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14</v>
+      </c>
+      <c r="J82" t="n">
+        <v>28</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1707215528.21173</v>
+        <v>1957719179.150035</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191649383017249</v>
+        <v>0.1176680417044675</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04001824014245945</v>
+        <v>0.03180598737844431</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2148432969.497818</v>
+        <v>2525805324.304143</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1195637644863851</v>
+        <v>0.1039162934547702</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03167562897192441</v>
+        <v>0.05088622302763979</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3440,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3448927323.893931</v>
+        <v>2420705555.204548</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1624203074359509</v>
+        <v>0.1703071383868776</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04218583068448946</v>
+        <v>0.05602835281497812</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>5</v>
+      </c>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="n">
+        <v>86.94483591612585</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2737053756.067002</v>
+        <v>1972700243.592332</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1156110409313735</v>
+        <v>0.1375009840906555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02576235609393992</v>
+        <v>0.02675633177761704</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>989572775.7012075</v>
+        <v>1085521626.335849</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1681929795303619</v>
+        <v>0.1530995029974678</v>
       </c>
       <c r="G87" t="n">
-        <v>0.028560585635352</v>
+        <v>0.03915662541030501</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3250054112.307611</v>
+        <v>2296371832.223957</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1285335068220126</v>
+        <v>0.161750960715761</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03885068551255847</v>
+        <v>0.03670060693341118</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2329290819.662354</v>
+        <v>2385352305.759219</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1045552640874693</v>
+        <v>0.1020020723797152</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02729616319179258</v>
+        <v>0.03725014471130916</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1569555417.054286</v>
+        <v>2101673796.249332</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08968970477586917</v>
+        <v>0.09071669741560807</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04245576731516459</v>
+        <v>0.03409123007992935</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2044107728.675367</v>
+        <v>1638794494.054704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1360271774399786</v>
+        <v>0.1422424786641251</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04922382212645422</v>
+        <v>0.04765621921000977</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2479599446.098835</v>
+        <v>2565430182.260257</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09337124955203181</v>
+        <v>0.06902341698764096</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04753974320775788</v>
+        <v>0.04622058796221935</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3198103174.538536</v>
+        <v>4968122947.50129</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1070042964221734</v>
+        <v>0.1166494814847442</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04228501369869277</v>
+        <v>0.04823661054380855</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12</v>
+      </c>
+      <c r="J93" t="n">
+        <v>27</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.2069413740371</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2318170243.803987</v>
+        <v>2175916871.184834</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127983098048605</v>
+        <v>0.1630303626435184</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02723848387908578</v>
+        <v>0.03539204911010055</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3063020088.796455</v>
+        <v>2323001489.202887</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1145004135965981</v>
+        <v>0.08348559180427532</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04158385992318133</v>
+        <v>0.04231600372401809</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2043777087.914072</v>
+        <v>2408526882.982268</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1143473234754586</v>
+        <v>0.1301373724122778</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04224065939357068</v>
+        <v>0.03070216222492182</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4394265537.351665</v>
+        <v>4514382802.81883</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1465565768326478</v>
+        <v>0.1555023810185251</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02849533045605348</v>
+        <v>0.02090612430784256</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>28</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3265073936.786975</v>
+        <v>3201406418.969485</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1075714450632012</v>
+        <v>0.08313987197144362</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02224766517488062</v>
+        <v>0.03003062879689516</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2685697758.516104</v>
+        <v>2917545549.758988</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1259016318878776</v>
+        <v>0.109308568203252</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02975461279047769</v>
+        <v>0.02510597424071377</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3996311478.097478</v>
+        <v>3457149172.064913</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1212946593988151</v>
+        <v>0.1305743965067459</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02120426388135068</v>
+        <v>0.01959733491925468</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>27</v>
+      </c>
+      <c r="K100" t="n">
+        <v>156.980985726681</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3321063316.132944</v>
+        <v>2673925417.932346</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1486669570766074</v>
+        <v>0.2132333301349198</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05137736909283985</v>
+        <v>0.0427048636293935</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
